--- a/malicious_node_data.xlsx
+++ b/malicious_node_data.xlsx
@@ -433,46 +433,46 @@
     </row>
     <row r="3">
       <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -480,18 +480,18 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
         <v>20</v>
@@ -499,10 +499,10 @@
     </row>
     <row r="9">
       <c r="B9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
         <v>21</v>
@@ -510,10 +510,10 @@
     </row>
     <row r="10">
       <c r="B10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
         <v>24</v>
@@ -521,10 +521,10 @@
     </row>
     <row r="11">
       <c r="B11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
         <v>38</v>
@@ -532,10 +532,10 @@
     </row>
     <row r="12">
       <c r="B12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" t="n">
         <v>42</v>
@@ -543,10 +543,10 @@
     </row>
     <row r="13">
       <c r="B13" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" t="n">
         <v>48</v>
@@ -554,10 +554,10 @@
     </row>
     <row r="14">
       <c r="B14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
         <v>49</v>
@@ -565,118 +565,120 @@
     </row>
     <row r="15">
       <c r="B15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D18" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="n">
-        <v>32</v>
-      </c>
-      <c r="D22" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="n">
-        <v>34</v>
-      </c>
-      <c r="D23" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="32"/>
-    <row r="33"/>
+    <row r="33">
+      <c r="B33" t="n">
+        <v>50</v>
+      </c>
+    </row>
     <row r="34"/>
     <row r="35"/>
     <row r="36"/>
